--- a/PythonResources/Data/Consumption/Sympheny/base_1045_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1045_hea.xlsx
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>17.0457442861405</v>
+        <v>17.04574428614049</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -759,7 +759,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>16.72846557968573</v>
+        <v>16.72846557968572</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>26.60205817929032</v>
+        <v>26.60205817929031</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3.138028839362489</v>
+        <v>3.138028839362488</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>7.232524320500144</v>
+        <v>7.232524320500143</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>6.6695348552317</v>
+        <v>6.669534855231699</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>19.13361167266779</v>
+        <v>19.13361167266778</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>18.34906050217137</v>
+        <v>18.34906050217136</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>49.24736426561381</v>
+        <v>49.2473642656138</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>3.353904966440436</v>
+        <v>3.353904966440435</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>7.024121504908061</v>
+        <v>7.02412150490806</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>10.43171708563126</v>
+        <v>10.43171708563125</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>16.2435209320128</v>
+        <v>16.24352093201279</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>59.53503693574301</v>
+        <v>59.535036935743</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>33.19234662566799</v>
+        <v>33.19234662566798</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>23.06559926286773</v>
+        <v>23.06559926286772</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>57.03338254972977</v>
+        <v>57.03338254972976</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>31.1648811802088</v>
+        <v>31.16488118020879</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>33.48248695394272</v>
+        <v>33.48248695394271</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>26.74879884834805</v>
+        <v>26.74879884834804</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>28.04050945124793</v>
+        <v>28.04050945124792</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>465</v>
       </c>
       <c r="B465">
-        <v>27.21314060200309</v>
+        <v>27.21314060200308</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>26.9098120769886</v>
+        <v>26.90981207698859</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>27.74840554701417</v>
+        <v>27.74840554701416</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>30.50136834867952</v>
+        <v>30.50136834867951</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>506</v>
       </c>
       <c r="B506">
-        <v>37.81349076328008</v>
+        <v>37.81349076328007</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>522</v>
       </c>
       <c r="B522">
-        <v>8.227383268339947</v>
+        <v>8.227383268339945</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>558</v>
       </c>
       <c r="B558">
-        <v>38.00486615152594</v>
+        <v>38.00486615152593</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>569</v>
       </c>
       <c r="B569">
-        <v>34.69521491192337</v>
+        <v>34.69521491192336</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>570</v>
       </c>
       <c r="B570">
-        <v>5.514571198971204</v>
+        <v>5.514571198971203</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>25.69708411900795</v>
+        <v>25.69708411900794</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>27.30888691033375</v>
+        <v>27.30888691033374</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>27.78146396017517</v>
+        <v>27.78146396017516</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>583</v>
       </c>
       <c r="B583">
-        <v>55.58385319251075</v>
+        <v>55.58385319251074</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>30.62475125595594</v>
+        <v>30.62475125595593</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>639</v>
       </c>
       <c r="B639">
-        <v>20.3391007759935</v>
+        <v>20.33910077599349</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>34.85083563345254</v>
+        <v>34.85083563345253</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>657</v>
       </c>
       <c r="B657">
-        <v>38.74604280830048</v>
+        <v>38.74604280830047</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>34.88131502147332</v>
+        <v>34.88131502147331</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>674</v>
       </c>
       <c r="B674">
-        <v>35.90032302289882</v>
+        <v>35.90032302289881</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>9.73795932291212</v>
+        <v>9.737959322912118</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>24.16634477697588</v>
+        <v>24.16634477697587</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>28.38691941894564</v>
+        <v>28.38691941894563</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>726</v>
       </c>
       <c r="B726">
-        <v>30.16492279629629</v>
+        <v>30.16492279629628</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>758</v>
       </c>
       <c r="B758">
-        <v>17.73507667617585</v>
+        <v>17.73507667617584</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>760</v>
       </c>
       <c r="B760">
-        <v>17.4001257860898</v>
+        <v>17.40012578608979</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>769</v>
       </c>
       <c r="B769">
-        <v>22.95411503976095</v>
+        <v>22.95411503976094</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6567,7 +6567,7 @@
         <v>778</v>
       </c>
       <c r="B778">
-        <v>26.38284104237163</v>
+        <v>26.38284104237162</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>26.58930958910855</v>
+        <v>26.58930958910854</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>25.10991629304994</v>
+        <v>25.10991629304993</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>25.51957099089077</v>
+        <v>25.51957099089076</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>29.37128642360137</v>
+        <v>29.37128642360136</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>799</v>
       </c>
       <c r="B799">
-        <v>33.48512459329067</v>
+        <v>33.48512459329066</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6759,7 +6759,7 @@
         <v>802</v>
       </c>
       <c r="B802">
-        <v>33.22517058199806</v>
+        <v>33.22517058199805</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6799,7 +6799,7 @@
         <v>807</v>
       </c>
       <c r="B807">
-        <v>32.77178968518896</v>
+        <v>32.77178968518895</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>809</v>
       </c>
       <c r="B809">
-        <v>34.13222544665492</v>
+        <v>34.13222544665491</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>831</v>
       </c>
       <c r="B831">
-        <v>29.38916375695971</v>
+        <v>29.3891637569597</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>834</v>
       </c>
       <c r="B834">
-        <v>38.22906549610187</v>
+        <v>38.22906549610186</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>835</v>
       </c>
       <c r="B835">
-        <v>41.08240512850873</v>
+        <v>41.08240512850872</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>837</v>
       </c>
       <c r="B837">
-        <v>41.1076092378336</v>
+        <v>41.10760923783359</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>839</v>
       </c>
       <c r="B839">
-        <v>41.86695629900515</v>
+        <v>41.86695629900514</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>847</v>
       </c>
       <c r="B847">
-        <v>76.3409025767392</v>
+        <v>76.34090257673918</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>25.73568157479965</v>
+        <v>25.73568157479964</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>866</v>
       </c>
       <c r="B866">
-        <v>40.13959559713518</v>
+        <v>40.13959559713517</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>885</v>
       </c>
       <c r="B885">
-        <v>27.79655711866623</v>
+        <v>27.79655711866622</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>888</v>
       </c>
       <c r="B888">
-        <v>30.16228515694834</v>
+        <v>30.16228515694833</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>23.99730140187601</v>
+        <v>23.997301401876</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7655,7 +7655,7 @@
         <v>914</v>
       </c>
       <c r="B914">
-        <v>20.32198542733568</v>
+        <v>20.32198542733567</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>916</v>
       </c>
       <c r="B916">
-        <v>20.31797035410602</v>
+        <v>20.31797035410601</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7703,7 +7703,7 @@
         <v>920</v>
       </c>
       <c r="B920">
-        <v>30.55998255641179</v>
+        <v>30.55998255641178</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>965</v>
       </c>
       <c r="B965">
-        <v>16.20486486201337</v>
+        <v>16.20486486201336</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8127,7 +8127,7 @@
         <v>973</v>
       </c>
       <c r="B973">
-        <v>12.31267631886364</v>
+        <v>12.31267631886363</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>976</v>
       </c>
       <c r="B976">
-        <v>9.405704686381752</v>
+        <v>9.40570468638175</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>986</v>
       </c>
       <c r="B986">
-        <v>11.24651318731753</v>
+        <v>11.24651318731752</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>995</v>
       </c>
       <c r="B995">
-        <v>9.975698549474204</v>
+        <v>9.975698549474201</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>4.962073676886836</v>
+        <v>4.962073676886835</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>1008</v>
       </c>
       <c r="B1008">
-        <v>18.29536988788861</v>
+        <v>18.2953698878886</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>23.63307271502769</v>
+        <v>23.63307271502768</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>29.979115757785</v>
+        <v>29.97911575778499</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>21.62354321713458</v>
+        <v>21.62354321713457</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>1080</v>
       </c>
       <c r="B1080">
-        <v>15.62643055300747</v>
+        <v>15.62643055300746</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9039,7 +9039,7 @@
         <v>1087</v>
       </c>
       <c r="B1087">
-        <v>43.23501190747631</v>
+        <v>43.2350119074763</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>1112</v>
       </c>
       <c r="B1112">
-        <v>33.67386234218858</v>
+        <v>33.67386234218857</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>1114</v>
       </c>
       <c r="B1114">
-        <v>24.41126424398516</v>
+        <v>24.41126424398515</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>1134</v>
       </c>
       <c r="B1134">
-        <v>32.95525215539096</v>
+        <v>32.95525215539095</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>1149</v>
       </c>
       <c r="B1149">
-        <v>28.46062678516897</v>
+        <v>28.46062678516896</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9639,7 +9639,7 @@
         <v>1162</v>
       </c>
       <c r="B1162">
-        <v>26.869221738134</v>
+        <v>26.86922173813399</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>75.49187577773728</v>
+        <v>75.49187577773726</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9959,7 +9959,7 @@
         <v>1202</v>
       </c>
       <c r="B1202">
-        <v>48.09354358640409</v>
+        <v>48.09354358640408</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>20.88456459315</v>
+        <v>20.88456459314999</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10223,7 +10223,7 @@
         <v>1235</v>
       </c>
       <c r="B1235">
-        <v>6.148542469803426</v>
+        <v>6.148542469803425</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
@@ -10327,7 +10327,7 @@
         <v>1248</v>
       </c>
       <c r="B1248">
-        <v>3.93691118364945</v>
+        <v>3.936911183649449</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10351,7 +10351,7 @@
         <v>1251</v>
       </c>
       <c r="B1251">
-        <v>6.423560332483232</v>
+        <v>6.423560332483231</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -10407,7 +10407,7 @@
         <v>1258</v>
       </c>
       <c r="B1258">
-        <v>6.73321919193281</v>
+        <v>6.733219191932809</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>1259</v>
       </c>
       <c r="B1259">
-        <v>5.553022119243573</v>
+        <v>5.553022119243572</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>7.127458353140052</v>
+        <v>7.127458353140051</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10615,7 +10615,7 @@
         <v>1284</v>
       </c>
       <c r="B1284">
-        <v>5.788827076950491</v>
+        <v>5.78882707695049</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -10631,7 +10631,7 @@
         <v>1286</v>
       </c>
       <c r="B1286">
-        <v>3.323073893173262</v>
+        <v>3.323073893173261</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -10727,7 +10727,7 @@
         <v>1298</v>
       </c>
       <c r="B1298">
-        <v>6.307445586965608</v>
+        <v>6.307445586965607</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -10751,7 +10751,7 @@
         <v>1301</v>
       </c>
       <c r="B1301">
-        <v>7.561994782163228</v>
+        <v>7.561994782163227</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>5.370585397676885</v>
+        <v>5.370585397676884</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10983,7 +10983,7 @@
         <v>1330</v>
       </c>
       <c r="B1330">
-        <v>5.15514887715693</v>
+        <v>5.155148877156929</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -11111,7 +11111,7 @@
         <v>1346</v>
       </c>
       <c r="B1346">
-        <v>5.775140659445006</v>
+        <v>5.775140659445005</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -11143,7 +11143,7 @@
         <v>1350</v>
       </c>
       <c r="B1350">
-        <v>9.87291853621567</v>
+        <v>9.872918536215668</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
@@ -11287,7 +11287,7 @@
         <v>1368</v>
       </c>
       <c r="B1368">
-        <v>6.781634527519665</v>
+        <v>6.781634527519664</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>8.725486805648769</v>
+        <v>8.725486805648767</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>8.006319783877695</v>
+        <v>8.006319783877693</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11343,7 +11343,7 @@
         <v>1375</v>
       </c>
       <c r="B1375">
-        <v>34.3795774032851</v>
+        <v>34.37957740328509</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>22.0061181510031</v>
+        <v>22.00611815100309</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11999,7 +11999,7 @@
         <v>1457</v>
       </c>
       <c r="B1457">
-        <v>19.87358673818382</v>
+        <v>19.87358673818381</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -12039,7 +12039,7 @@
         <v>1462</v>
       </c>
       <c r="B1462">
-        <v>21.37024191841958</v>
+        <v>21.37024191841957</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>17.62280116126469</v>
+        <v>17.62280116126468</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>26.02347733476509</v>
+        <v>26.02347733476508</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12255,7 +12255,7 @@
         <v>1489</v>
       </c>
       <c r="B1489">
-        <v>27.87609659855892</v>
+        <v>27.87609659855891</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -12287,7 +12287,7 @@
         <v>1493</v>
       </c>
       <c r="B1493">
-        <v>33.17681386061894</v>
+        <v>33.17681386061893</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
@@ -12295,7 +12295,7 @@
         <v>1494</v>
       </c>
       <c r="B1494">
-        <v>30.72673997741009</v>
+        <v>30.72673997741008</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1499</v>
       </c>
       <c r="B1499">
-        <v>22.48276888828191</v>
+        <v>22.4827688882819</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12391,7 +12391,7 @@
         <v>1506</v>
       </c>
       <c r="B1506">
-        <v>17.29526496845677</v>
+        <v>17.29526496845676</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
@@ -12471,7 +12471,7 @@
         <v>1516</v>
       </c>
       <c r="B1516">
-        <v>22.93055212825258</v>
+        <v>22.93055212825257</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
@@ -12543,7 +12543,7 @@
         <v>1525</v>
       </c>
       <c r="B1525">
-        <v>13.96489360642084</v>
+        <v>13.96489360642083</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12559,7 +12559,7 @@
         <v>1527</v>
       </c>
       <c r="B1527">
-        <v>5.254412037951528</v>
+        <v>5.254412037951527</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
@@ -12911,7 +12911,7 @@
         <v>1571</v>
       </c>
       <c r="B1571">
-        <v>2.334504249823132</v>
+        <v>2.334504249823131</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>15.95320476111487</v>
+        <v>15.95320476111486</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13311,7 +13311,7 @@
         <v>1621</v>
       </c>
       <c r="B1621">
-        <v>18.86999427339191</v>
+        <v>18.8699942733919</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
@@ -13399,7 +13399,7 @@
         <v>1632</v>
       </c>
       <c r="B1632">
-        <v>25.41573592189306</v>
+        <v>25.41573592189305</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
@@ -13903,7 +13903,7 @@
         <v>1695</v>
       </c>
       <c r="B1695">
-        <v>4.547055779038505</v>
+        <v>4.547055779038504</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>12.65794330951057</v>
+        <v>12.65794330951056</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14271,7 +14271,7 @@
         <v>1741</v>
       </c>
       <c r="B1741">
-        <v>7.173323970690553</v>
+        <v>7.173323970690552</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -14335,7 +14335,7 @@
         <v>1749</v>
       </c>
       <c r="B1749">
-        <v>13.25191038356552</v>
+        <v>13.25191038356551</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14711,7 +14711,7 @@
         <v>1796</v>
       </c>
       <c r="B1796">
-        <v>7.390577531650208</v>
+        <v>7.390577531650207</v>
       </c>
     </row>
     <row r="1797" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>18.46878002146453</v>
+        <v>18.46878002146452</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>17.97164361858329</v>
+        <v>17.97164361858328</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14975,7 +14975,7 @@
         <v>1829</v>
       </c>
       <c r="B1829">
-        <v>25.7202367310622</v>
+        <v>25.72023673106219</v>
       </c>
     </row>
     <row r="1830" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>25.09335777936558</v>
+        <v>25.09335777936557</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15039,7 +15039,7 @@
         <v>1837</v>
       </c>
       <c r="B1837">
-        <v>5.260771679490479</v>
+        <v>5.260771679490478</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>8.115107753428786</v>
+        <v>8.115107753428784</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>8.352260837913546</v>
+        <v>8.352260837913544</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15431,7 +15431,7 @@
         <v>1886</v>
       </c>
       <c r="B1886">
-        <v>4.83663927233978</v>
+        <v>4.836639272339779</v>
       </c>
     </row>
     <row r="1887" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>12.30622875601309</v>
+        <v>12.30622875601308</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15607,7 +15607,7 @@
         <v>1908</v>
       </c>
       <c r="B1908">
-        <v>7.281906790514581</v>
+        <v>7.28190679051458</v>
       </c>
     </row>
     <row r="1909" spans="1:2">
@@ -15687,7 +15687,7 @@
         <v>1918</v>
       </c>
       <c r="B1918">
-        <v>9.99718065660808</v>
+        <v>9.997180656608078</v>
       </c>
     </row>
     <row r="1919" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>14.45438085519302</v>
+        <v>14.45438085519301</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -15799,7 +15799,7 @@
         <v>1932</v>
       </c>
       <c r="B1932">
-        <v>5.590124912738099</v>
+        <v>5.590124912738098</v>
       </c>
     </row>
     <row r="1933" spans="1:2">
@@ -15895,7 +15895,7 @@
         <v>1944</v>
       </c>
       <c r="B1944">
-        <v>6.63882101037999</v>
+        <v>6.638821010379989</v>
       </c>
     </row>
     <row r="1945" spans="1:2">
@@ -16095,7 +16095,7 @@
         <v>1969</v>
       </c>
       <c r="B1969">
-        <v>15.56723020319788</v>
+        <v>15.56723020319787</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -16503,7 +16503,7 @@
         <v>2020</v>
       </c>
       <c r="B2020">
-        <v>18.6191254642978</v>
+        <v>18.61912546429779</v>
       </c>
     </row>
     <row r="2021" spans="1:2">
@@ -16671,7 +16671,7 @@
         <v>2041</v>
       </c>
       <c r="B2041">
-        <v>13.52733854569945</v>
+        <v>13.52733854569944</v>
       </c>
     </row>
     <row r="2042" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>8.215865576520557</v>
+        <v>8.215865576520555</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>4.451807691473568</v>
+        <v>4.451807691473567</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>0.6610862033291698</v>
+        <v>0.6610862033291697</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>38.03769010785601</v>
+        <v>38.037690107856</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17535,7 +17535,7 @@
         <v>2149</v>
       </c>
       <c r="B2149">
-        <v>7.618205807378475</v>
+        <v>7.618205807378474</v>
       </c>
     </row>
     <row r="2150" spans="1:2">
@@ -17551,7 +17551,7 @@
         <v>2151</v>
       </c>
       <c r="B2151">
-        <v>6.561157185134734</v>
+        <v>6.561157185134733</v>
       </c>
     </row>
     <row r="2152" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>7.064858379281988</v>
+        <v>7.064858379281987</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17607,7 +17607,7 @@
         <v>2158</v>
       </c>
       <c r="B2158">
-        <v>12.0578510507476</v>
+        <v>12.05785105074759</v>
       </c>
     </row>
     <row r="2159" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>17.27357771159583</v>
+        <v>17.27357771159582</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17727,7 +17727,7 @@
         <v>2173</v>
       </c>
       <c r="B2173">
-        <v>5.723442928225145</v>
+        <v>5.723442928225144</v>
       </c>
     </row>
     <row r="2174" spans="1:2">
@@ -17735,7 +17735,7 @@
         <v>2174</v>
       </c>
       <c r="B2174">
-        <v>2.585578208644307</v>
+        <v>2.585578208644306</v>
       </c>
     </row>
     <row r="2175" spans="1:2">
@@ -17791,7 +17791,7 @@
         <v>2181</v>
       </c>
       <c r="B2181">
-        <v>14.20697028435511</v>
+        <v>14.2069702843551</v>
       </c>
     </row>
     <row r="2182" spans="1:2">
@@ -17863,7 +17863,7 @@
         <v>2190</v>
       </c>
       <c r="B2190">
-        <v>42.18786908633932</v>
+        <v>42.18786908633931</v>
       </c>
     </row>
     <row r="2191" spans="1:2">
@@ -19015,7 +19015,7 @@
         <v>2334</v>
       </c>
       <c r="B2334">
-        <v>8.464917345174968</v>
+        <v>8.464917345174966</v>
       </c>
     </row>
     <row r="2335" spans="1:2">
@@ -19207,7 +19207,7 @@
         <v>2358</v>
       </c>
       <c r="B2358">
-        <v>44.10103682672058</v>
+        <v>44.10103682672057</v>
       </c>
     </row>
     <row r="2359" spans="1:2">
@@ -19215,7 +19215,7 @@
         <v>2359</v>
       </c>
       <c r="B2359">
-        <v>29.09914065710044</v>
+        <v>29.09914065710043</v>
       </c>
     </row>
     <row r="2360" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>6.987370396659929</v>
+        <v>6.987370396659928</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -19311,7 +19311,7 @@
         <v>2371</v>
       </c>
       <c r="B2371">
-        <v>3.611602330735357</v>
+        <v>3.611602330735356</v>
       </c>
     </row>
     <row r="2372" spans="1:2">
@@ -19471,7 +19471,7 @@
         <v>2391</v>
       </c>
       <c r="B2391">
-        <v>1.2869335449697</v>
+        <v>1.286933544969699</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19743,7 +19743,7 @@
         <v>2425</v>
       </c>
       <c r="B2425">
-        <v>8.269351041076252</v>
+        <v>8.26935104107625</v>
       </c>
     </row>
     <row r="2426" spans="1:2">
@@ -19799,7 +19799,7 @@
         <v>2432</v>
       </c>
       <c r="B2432">
-        <v>6.906893089443523</v>
+        <v>6.906893089443522</v>
       </c>
     </row>
     <row r="2433" spans="1:2">
@@ -19975,7 +19975,7 @@
         <v>2454</v>
       </c>
       <c r="B2454">
-        <v>19.26112688158934</v>
+        <v>19.26112688158933</v>
       </c>
     </row>
     <row r="2455" spans="1:2">
@@ -20263,7 +20263,7 @@
         <v>2490</v>
       </c>
       <c r="B2490">
-        <v>1.008750515072351</v>
+        <v>1.00875051507235</v>
       </c>
     </row>
     <row r="2491" spans="1:2">
@@ -20271,7 +20271,7 @@
         <v>2491</v>
       </c>
       <c r="B2491">
-        <v>5.044954166620264</v>
+        <v>5.044954166620263</v>
       </c>
     </row>
     <row r="2492" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>9.387798045919544</v>
+        <v>9.387798045919542</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20415,7 +20415,7 @@
         <v>2509</v>
       </c>
       <c r="B2509">
-        <v>0.7716208762706829</v>
+        <v>0.7716208762706828</v>
       </c>
     </row>
     <row r="2510" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>7.784259857883993</v>
+        <v>7.784259857883992</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20727,7 +20727,7 @@
         <v>2548</v>
       </c>
       <c r="B2548">
-        <v>1.992847894372509</v>
+        <v>1.992847894372508</v>
       </c>
     </row>
     <row r="2549" spans="1:2">
@@ -20767,7 +20767,7 @@
         <v>2553</v>
       </c>
       <c r="B2553">
-        <v>3.851510282983534</v>
+        <v>3.851510282983533</v>
       </c>
     </row>
     <row r="2554" spans="1:2">
@@ -20775,7 +20775,7 @@
         <v>2554</v>
       </c>
       <c r="B2554">
-        <v>4.050036604572729</v>
+        <v>4.050036604572728</v>
       </c>
     </row>
     <row r="2555" spans="1:2">
@@ -20879,7 +20879,7 @@
         <v>2567</v>
       </c>
       <c r="B2567">
-        <v>9.548430282209829</v>
+        <v>9.548430282209823</v>
       </c>
     </row>
     <row r="2568" spans="1:2">
@@ -20999,7 +20999,7 @@
         <v>2582</v>
       </c>
       <c r="B2582">
-        <v>6.89698728833677</v>
+        <v>6.896987288336769</v>
       </c>
     </row>
     <row r="2583" spans="1:2">
@@ -21159,7 +21159,7 @@
         <v>2602</v>
       </c>
       <c r="B2602">
-        <v>7.905884338928451</v>
+        <v>7.90588433892845</v>
       </c>
     </row>
     <row r="2603" spans="1:2">
@@ -21311,7 +21311,7 @@
         <v>2621</v>
       </c>
       <c r="B2621">
-        <v>9.783502562320091</v>
+        <v>9.78350256232009</v>
       </c>
     </row>
     <row r="2622" spans="1:2">
@@ -21351,7 +21351,7 @@
         <v>2626</v>
       </c>
       <c r="B2626">
-        <v>3.865255314696751</v>
+        <v>3.86525531469675</v>
       </c>
     </row>
     <row r="2627" spans="1:2">
@@ -21495,7 +21495,7 @@
         <v>2644</v>
       </c>
       <c r="B2644">
-        <v>11.77559433341286</v>
+        <v>11.77559433341285</v>
       </c>
     </row>
     <row r="2645" spans="1:2">
@@ -21519,7 +21519,7 @@
         <v>2647</v>
       </c>
       <c r="B2647">
-        <v>8.968032397244899</v>
+        <v>8.968032397244897</v>
       </c>
     </row>
     <row r="2648" spans="1:2">
@@ -21591,7 +21591,7 @@
         <v>2656</v>
       </c>
       <c r="B2656">
-        <v>9.245834434791988</v>
+        <v>9.245834434791986</v>
       </c>
     </row>
     <row r="2657" spans="1:2">
@@ -21895,7 +21895,7 @@
         <v>2694</v>
       </c>
       <c r="B2694">
-        <v>37.22529718868676</v>
+        <v>37.22529718868675</v>
       </c>
     </row>
     <row r="2695" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>9.613316210169449</v>
+        <v>9.613316210169447</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -22063,7 +22063,7 @@
         <v>2715</v>
       </c>
       <c r="B2715">
-        <v>12.38175316267612</v>
+        <v>12.38175316267611</v>
       </c>
     </row>
     <row r="2716" spans="1:2">
@@ -22071,7 +22071,7 @@
         <v>2716</v>
       </c>
       <c r="B2716">
-        <v>12.97062080065836</v>
+        <v>12.97062080065835</v>
       </c>
     </row>
     <row r="2717" spans="1:2">
@@ -22271,7 +22271,7 @@
         <v>2741</v>
       </c>
       <c r="B2741">
-        <v>5.538075496271844</v>
+        <v>5.538075496271843</v>
       </c>
     </row>
     <row r="2742" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>2.953511313421306</v>
+        <v>2.953511313421305</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -22959,7 +22959,7 @@
         <v>2827</v>
       </c>
       <c r="B2827">
-        <v>3.37222190635677</v>
+        <v>3.372221906356769</v>
       </c>
     </row>
     <row r="2828" spans="1:2">
@@ -22991,7 +22991,7 @@
         <v>2831</v>
       </c>
       <c r="B2831">
-        <v>6.639114081418652</v>
+        <v>6.639114081418651</v>
       </c>
     </row>
     <row r="2832" spans="1:2">
@@ -23063,7 +23063,7 @@
         <v>2840</v>
       </c>
       <c r="B2840">
-        <v>8.102535005870214</v>
+        <v>8.102535005870212</v>
       </c>
     </row>
     <row r="2841" spans="1:2">
@@ -23079,7 +23079,7 @@
         <v>2842</v>
       </c>
       <c r="B2842">
-        <v>5.779771181855856</v>
+        <v>5.779771181855855</v>
       </c>
     </row>
     <row r="2843" spans="1:2">
@@ -23239,7 +23239,7 @@
         <v>2862</v>
       </c>
       <c r="B2862">
-        <v>34.90681220183686</v>
+        <v>34.90681220183685</v>
       </c>
     </row>
     <row r="2863" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>9.352688135487917</v>
+        <v>9.352688135487911</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27087,7 +27087,7 @@
         <v>3343</v>
       </c>
       <c r="B3343">
-        <v>7.045720840457403</v>
+        <v>7.045720840457402</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -27095,7 +27095,7 @@
         <v>3344</v>
       </c>
       <c r="B3344">
-        <v>2.899445568209061</v>
+        <v>2.89944556820906</v>
       </c>
     </row>
     <row r="3345" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>5.256697992053086</v>
+        <v>5.256697992053085</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -54295,7 +54295,7 @@
         <v>6744</v>
       </c>
       <c r="B6744">
-        <v>14.02198384475207</v>
+        <v>14.02198384475206</v>
       </c>
     </row>
     <row r="6745" spans="1:2">
@@ -54527,7 +54527,7 @@
         <v>6773</v>
       </c>
       <c r="B6773">
-        <v>6.712381841083988</v>
+        <v>6.712381841083987</v>
       </c>
     </row>
     <row r="6774" spans="1:2">
@@ -54551,7 +54551,7 @@
         <v>6776</v>
       </c>
       <c r="B6776">
-        <v>3.187030317026666</v>
+        <v>3.187030317026665</v>
       </c>
     </row>
     <row r="6777" spans="1:2">
@@ -55879,7 +55879,7 @@
         <v>6942</v>
       </c>
       <c r="B6942">
-        <v>8.665524471138658</v>
+        <v>8.665524471138657</v>
       </c>
     </row>
     <row r="6943" spans="1:2">
@@ -56087,7 +56087,7 @@
         <v>6968</v>
       </c>
       <c r="B6968">
-        <v>0.9371415374858374</v>
+        <v>0.9371415374858372</v>
       </c>
     </row>
     <row r="6969" spans="1:2">
@@ -56247,7 +56247,7 @@
         <v>6988</v>
       </c>
       <c r="B6988">
-        <v>2.195163624491596</v>
+        <v>2.195163624491595</v>
       </c>
     </row>
     <row r="6989" spans="1:2">
@@ -58023,7 +58023,7 @@
         <v>7210</v>
       </c>
       <c r="B7210">
-        <v>6.997100355143485</v>
+        <v>6.997100355143484</v>
       </c>
     </row>
     <row r="7211" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>8.76294128438969</v>
+        <v>8.762941284389688</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58351,7 +58351,7 @@
         <v>7251</v>
       </c>
       <c r="B7251">
-        <v>6.433085141239726</v>
+        <v>6.433085141239725</v>
       </c>
     </row>
     <row r="7252" spans="1:2">
@@ -58551,7 +58551,7 @@
         <v>7276</v>
       </c>
       <c r="B7276">
-        <v>4.162986182872812</v>
+        <v>4.162986182872811</v>
       </c>
     </row>
     <row r="7277" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>4.126059232001483</v>
+        <v>4.126059232001482</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>3.228382640581782</v>
+        <v>3.228382640581781</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>8.545892873157097</v>
+        <v>8.545892873157095</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59751,7 +59751,7 @@
         <v>7426</v>
       </c>
       <c r="B7426">
-        <v>9.038164296796561</v>
+        <v>9.038164296796555</v>
       </c>
     </row>
     <row r="7427" spans="1:2">
@@ -60119,7 +60119,7 @@
         <v>7472</v>
       </c>
       <c r="B7472">
-        <v>19.20230752413001</v>
+        <v>19.20230752413</v>
       </c>
     </row>
     <row r="7473" spans="1:2">
@@ -60719,7 +60719,7 @@
         <v>7547</v>
       </c>
       <c r="B7547">
-        <v>2.456703150103367</v>
+        <v>2.456703150103366</v>
       </c>
     </row>
     <row r="7548" spans="1:2">
@@ -60799,7 +60799,7 @@
         <v>7557</v>
       </c>
       <c r="B7557">
-        <v>7.146976884314897</v>
+        <v>7.146976884314896</v>
       </c>
     </row>
     <row r="7558" spans="1:2">
@@ -61127,7 +61127,7 @@
         <v>7598</v>
       </c>
       <c r="B7598">
-        <v>3.150308515882399</v>
+        <v>3.150308515882398</v>
       </c>
     </row>
     <row r="7599" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>7.509359223619651</v>
+        <v>7.50935922361965</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>18.74511670381831</v>
+        <v>18.7451167038183</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61311,7 +61311,7 @@
         <v>7621</v>
       </c>
       <c r="B7621">
-        <v>7.210250921561882</v>
+        <v>7.210250921561881</v>
       </c>
     </row>
     <row r="7622" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>8.925390561119674</v>
+        <v>8.925390561119672</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61559,7 +61559,7 @@
         <v>7652</v>
       </c>
       <c r="B7652">
-        <v>3.660896879438195</v>
+        <v>3.660896879438194</v>
       </c>
     </row>
     <row r="7653" spans="1:2">
@@ -61767,7 +61767,7 @@
         <v>7678</v>
       </c>
       <c r="B7678">
-        <v>5.185305887035183</v>
+        <v>5.185305887035182</v>
       </c>
     </row>
     <row r="7679" spans="1:2">
@@ -61967,7 +61967,7 @@
         <v>7703</v>
       </c>
       <c r="B7703">
-        <v>16.61654175002096</v>
+        <v>16.61654175002095</v>
       </c>
     </row>
     <row r="7704" spans="1:2">
@@ -61983,7 +61983,7 @@
         <v>7705</v>
       </c>
       <c r="B7705">
-        <v>18.23675568015634</v>
+        <v>18.23675568015633</v>
       </c>
     </row>
     <row r="7706" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>19.29992948710811</v>
+        <v>19.2999294871081</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>9.474400537843971</v>
+        <v>9.47440053784397</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62359,7 +62359,7 @@
         <v>7752</v>
       </c>
       <c r="B7752">
-        <v>21.43307634910857</v>
+        <v>21.43307634910856</v>
       </c>
     </row>
     <row r="7753" spans="1:2">
@@ -62463,7 +62463,7 @@
         <v>7765</v>
       </c>
       <c r="B7765">
-        <v>9.698013740342578</v>
+        <v>9.698013740342576</v>
       </c>
     </row>
     <row r="7766" spans="1:2">
@@ -62599,7 +62599,7 @@
         <v>7782</v>
       </c>
       <c r="B7782">
-        <v>21.95538755421082</v>
+        <v>21.95538755421081</v>
       </c>
     </row>
     <row r="7783" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>5.930702766766449</v>
+        <v>5.930702766766448</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>45.84891250129685</v>
+        <v>45.84891250129684</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -62975,7 +62975,7 @@
         <v>7829</v>
       </c>
       <c r="B7829">
-        <v>35.33205827893447</v>
+        <v>35.33205827893446</v>
       </c>
     </row>
     <row r="7830" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>26.33753225979459</v>
+        <v>26.33753225979458</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63287,7 +63287,7 @@
         <v>7868</v>
       </c>
       <c r="B7868">
-        <v>25.08233830831191</v>
+        <v>25.0823383083119</v>
       </c>
     </row>
     <row r="7869" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>25.62724529049495</v>
+        <v>25.62724529049494</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63487,7 +63487,7 @@
         <v>7893</v>
       </c>
       <c r="B7893">
-        <v>18.8265611454623</v>
+        <v>18.82656114546229</v>
       </c>
     </row>
     <row r="7894" spans="1:2">
@@ -63495,7 +63495,7 @@
         <v>7894</v>
       </c>
       <c r="B7894">
-        <v>18.65344408292504</v>
+        <v>18.65344408292503</v>
       </c>
     </row>
     <row r="7895" spans="1:2">
@@ -63575,7 +63575,7 @@
         <v>7904</v>
       </c>
       <c r="B7904">
-        <v>21.45863214367984</v>
+        <v>21.45863214367983</v>
       </c>
     </row>
     <row r="7905" spans="1:2">
@@ -63615,7 +63615,7 @@
         <v>7909</v>
       </c>
       <c r="B7909">
-        <v>10.1504275027241</v>
+        <v>10.15042750272409</v>
       </c>
     </row>
     <row r="7910" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>0.4261252902135961</v>
+        <v>0.426125290213596</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -64519,7 +64519,7 @@
         <v>8022</v>
       </c>
       <c r="B8022">
-        <v>5.381429026107355</v>
+        <v>5.381429026107354</v>
       </c>
     </row>
     <row r="8023" spans="1:2">
@@ -64735,7 +64735,7 @@
         <v>8049</v>
       </c>
       <c r="B8049">
-        <v>13.53076747685179</v>
+        <v>13.53076747685178</v>
       </c>
     </row>
     <row r="8050" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>41.33444622175748</v>
+        <v>41.33444622175747</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>5.000495290055339</v>
+        <v>5.000495290055338</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -65111,7 +65111,7 @@
         <v>8096</v>
       </c>
       <c r="B8096">
-        <v>7.8224177071177</v>
+        <v>7.822417707117699</v>
       </c>
     </row>
     <row r="8097" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>10.06476283812339</v>
+        <v>10.06476283812338</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66135,7 +66135,7 @@
         <v>8224</v>
       </c>
       <c r="B8224">
-        <v>3.587042977695536</v>
+        <v>3.587042977695535</v>
       </c>
     </row>
     <row r="8225" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>5.064267548068047</v>
+        <v>5.064267548068046</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66703,7 +66703,7 @@
         <v>8295</v>
       </c>
       <c r="B8295">
-        <v>9.996623821634625</v>
+        <v>9.996623821634619</v>
       </c>
     </row>
     <row r="8296" spans="1:2">
@@ -67039,7 +67039,7 @@
         <v>8337</v>
       </c>
       <c r="B8337">
-        <v>17.59481287707253</v>
+        <v>17.59481287707252</v>
       </c>
     </row>
     <row r="8338" spans="1:2">
@@ -67231,7 +67231,7 @@
         <v>8361</v>
       </c>
       <c r="B8361">
-        <v>19.33588930355185</v>
+        <v>19.33588930355184</v>
       </c>
     </row>
     <row r="8362" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>10.45856239277264</v>
+        <v>10.45856239277263</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>6.445071746720975</v>
+        <v>6.445071746720974</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>40.77673203518494</v>
+        <v>40.77673203518493</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67647,7 +67647,7 @@
         <v>8413</v>
       </c>
       <c r="B8413">
-        <v>7.412587166653674</v>
+        <v>7.412587166653673</v>
       </c>
     </row>
     <row r="8414" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>9.136372401851975</v>
+        <v>9.136372401851974</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67791,7 +67791,7 @@
         <v>8431</v>
       </c>
       <c r="B8431">
-        <v>45.3981692438357</v>
+        <v>45.39816924383569</v>
       </c>
     </row>
     <row r="8432" spans="1:2">
@@ -67991,7 +67991,7 @@
         <v>8456</v>
       </c>
       <c r="B8456">
-        <v>28.28071047453477</v>
+        <v>28.28071047453476</v>
       </c>
     </row>
     <row r="8457" spans="1:2">
@@ -68023,7 +68023,7 @@
         <v>8460</v>
       </c>
       <c r="B8460">
-        <v>6.837230103553721</v>
+        <v>6.83723010355372</v>
       </c>
     </row>
     <row r="8461" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>7.817376885252725</v>
+        <v>7.817376885252724</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68159,7 +68159,7 @@
         <v>8477</v>
       </c>
       <c r="B8477">
-        <v>10.86053862940054</v>
+        <v>10.86053862940053</v>
       </c>
     </row>
     <row r="8478" spans="1:2">
@@ -68207,7 +68207,7 @@
         <v>8483</v>
       </c>
       <c r="B8483">
-        <v>6.195726907027903</v>
+        <v>6.195726907027902</v>
       </c>
     </row>
     <row r="8484" spans="1:2">
@@ -68215,7 +68215,7 @@
         <v>8484</v>
       </c>
       <c r="B8484">
-        <v>3.592288949287574</v>
+        <v>3.592288949287573</v>
       </c>
     </row>
     <row r="8485" spans="1:2">
@@ -68439,7 +68439,7 @@
         <v>8512</v>
       </c>
       <c r="B8512">
-        <v>4.723484544312635</v>
+        <v>4.723484544312634</v>
       </c>
     </row>
     <row r="8513" spans="1:2">
@@ -68575,7 +68575,7 @@
         <v>8529</v>
       </c>
       <c r="B8529">
-        <v>4.564903805292981</v>
+        <v>4.56490380529298</v>
       </c>
     </row>
     <row r="8530" spans="1:2">
@@ -68607,7 +68607,7 @@
         <v>8533</v>
       </c>
       <c r="B8533">
-        <v>9.524076078897069</v>
+        <v>9.524076078897068</v>
       </c>
     </row>
     <row r="8534" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>31.21470325678123</v>
+        <v>31.21470325678122</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -68943,7 +68943,7 @@
         <v>8575</v>
       </c>
       <c r="B8575">
-        <v>57.79243653986265</v>
+        <v>57.79243653986264</v>
       </c>
     </row>
     <row r="8576" spans="1:2">
@@ -69311,7 +69311,7 @@
         <v>8621</v>
       </c>
       <c r="B8621">
-        <v>41.29898462607946</v>
+        <v>41.29898462607945</v>
       </c>
     </row>
     <row r="8622" spans="1:2">
@@ -69399,7 +69399,7 @@
         <v>8632</v>
       </c>
       <c r="B8632">
-        <v>28.54599837873102</v>
+        <v>28.54599837873101</v>
       </c>
     </row>
     <row r="8633" spans="1:2">
@@ -69519,7 +69519,7 @@
         <v>8647</v>
       </c>
       <c r="B8647">
-        <v>59.73139453164611</v>
+        <v>59.7313945316461</v>
       </c>
     </row>
     <row r="8648" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>15.10359182003563</v>
+        <v>15.10359182003562</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69599,7 +69599,7 @@
         <v>8657</v>
       </c>
       <c r="B8657">
-        <v>23.33308519985394</v>
+        <v>23.33308519985393</v>
       </c>
     </row>
     <row r="8658" spans="1:2">
@@ -69647,7 +69647,7 @@
         <v>8663</v>
       </c>
       <c r="B8663">
-        <v>19.9447443863708</v>
+        <v>19.94474438637079</v>
       </c>
     </row>
     <row r="8664" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>16.41804473553563</v>
+        <v>16.41804473553562</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -69895,7 +69895,7 @@
         <v>8694</v>
       </c>
       <c r="B8694">
-        <v>19.47029168188194</v>
+        <v>19.47029168188193</v>
       </c>
     </row>
     <row r="8695" spans="1:2">
@@ -69903,7 +69903,7 @@
         <v>8695</v>
       </c>
       <c r="B8695">
-        <v>19.7665571948647</v>
+        <v>19.76655719486469</v>
       </c>
     </row>
     <row r="8696" spans="1:2">
@@ -69927,7 +69927,7 @@
         <v>8698</v>
       </c>
       <c r="B8698">
-        <v>19.58787178259288</v>
+        <v>19.58787178259287</v>
       </c>
     </row>
     <row r="8699" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>19.79967422223343</v>
+        <v>19.79967422223342</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -69999,7 +69999,7 @@
         <v>8707</v>
       </c>
       <c r="B8707">
-        <v>20.6510748966485</v>
+        <v>20.65107489664849</v>
       </c>
     </row>
     <row r="8708" spans="1:2">
@@ -70111,7 +70111,7 @@
         <v>8721</v>
       </c>
       <c r="B8721">
-        <v>25.32913342996863</v>
+        <v>25.32913342996862</v>
       </c>
     </row>
     <row r="8722" spans="1:2">
@@ -70175,7 +70175,7 @@
         <v>8729</v>
       </c>
       <c r="B8729">
-        <v>26.43916929600234</v>
+        <v>26.43916929600233</v>
       </c>
     </row>
     <row r="8730" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>27.44944378047573</v>
+        <v>27.44944378047572</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70399,7 +70399,7 @@
         <v>8757</v>
       </c>
       <c r="B8757">
-        <v>28.70284999862257</v>
+        <v>28.70284999862256</v>
       </c>
     </row>
     <row r="8758" spans="1:2">
